--- a/src/test/java/com/nexton/cloudapp/qa/testResources/datatest.xlsx
+++ b/src/test/java/com/nexton/cloudapp/qa/testResources/datatest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u44992/IdeaProjects/NextonChallenge/NextonChallenge/src/test/java/com/nexton/cloudapp/qa/testResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FD27B4-CCA5-E244-BA73-0BCCE5289A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA611DD4-55AD-C147-BC01-5FF529C0A6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="520" windowWidth="28040" windowHeight="16260" activeTab="2" xr2:uid="{F1FC844F-6342-3945-865E-695105371E72}"/>
+    <workbookView xWindow="760" yWindow="520" windowWidth="28040" windowHeight="16260" xr2:uid="{F1FC844F-6342-3945-865E-695105371E72}"/>
   </bookViews>
   <sheets>
     <sheet name="signUpData" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>nextontest11@yopmail.com</t>
   </si>
   <si>
-    <t>nextontest13@yopmail.com</t>
-  </si>
-  <si>
     <t>nextontest@yopmail.com</t>
   </si>
   <si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>Nexton</t>
+  </si>
+  <si>
+    <t>nextontest7@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A775CCF9-C60D-3A46-BCC0-124DEE9EFEA0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -465,7 +465,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -484,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32666B0-8CEC-7A47-86A8-4975B7ACEC31}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -492,10 +492,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
